--- a/biology/Botanique/Gorozh/Gorozh..xlsx
+++ b/biology/Botanique/Gorozh/Gorozh..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ivan Nikolaïevitch Gorojankine (Иван Николаевич Горожанкин), né le 16 (28) août 1848 à Voronej et mort le 7 (20) novembre 1904 à Moscou, est un botaniste russe qui s'intéressa particulièrement à l'algue verte et aux gymnospermes. Il est le fondateur de l'école moscovite de morphologie botanique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gorojankine étudie d'abord au lycée de Voronej de 1858 à 1865, puis entre à la faculté de droit de l'université de Moscou avant de se diriger en 1867 vers les sciences naturelles. Il termine ses études en 1871 avec une thèse sur la famille des Tropaeolaceae et sa place dans le système grâce à laquelle il est nommé doctorant pour deux ans. Il enseigne à partir de 1875 la botanique aux premières années de la faculté de médecine et compte Tchékhov parmi ses élèves en 1879. Il dirige la chaire de botanique de l'université et il est nommé professeur en 1881. Ses collections sont conservées dans l'herbier de l'université de Moscou.
 Il compte parmi ses élèves Vladimir Arnoldi, Vladimir Palladine, Mikhaïl Golenkine, Semion Rostovtsev, Boris Fedtchenko et d'autres.
@@ -545,7 +559,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Gorojankine est le fondateur au sein de la botanique russe de l'embryologie végétale. Il s'intéresse particulièrement à l'algue verte et aux gymnospermes, puis se spécialise en morphologie botanique. Il observe des similitudes entre les zoospores de l'algue Pandorina (qui possède huit à seize cellules de forme ronde) avec les gamètes mâles de l'algue Eudorina elegans (qui possède de seize à trente-deux cellules). Il décrit le premier la reproduction sexuelle de l'algue monocellulaire Chlamydomonas braunii dans l'un de ses derniers travaux L'Étude de la morphologie et de la systématique des chlamydomons (К исследованию морфологии и систематики хламидомонад, 1891) dont le dernier chapitre est posthume et qui paraît en 1905.
 Il décrit ainsi le passage de l'isogamie vers l'anisogamie et l'oogamie et démontre que ces trois types de gamètes peuvent être rangés dans un genre biologique.
@@ -577,7 +593,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ressources relatives à la recherche : Harvard University Herbaria &amp; Libraries International Plant Names Index  
